--- a/scopus_subject_area.xlsx
+++ b/scopus_subject_area.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive - Univerza v Ljubljani\Research\COVID bibliometrics\data 1.7. 2020\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\OneDrive - Univerza v Ljubljani\Research\COVID bibliometrics\za github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{B53447E9-29B5-4271-B759-3BEC8245AD89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{867FEF66-5655-453A-BC16-EF88A7B58ADA}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{B53447E9-29B5-4271-B759-3BEC8245AD89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D03F722B-DF92-4F5B-B349-066B0E4CA9D1}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{F3B1B12B-575E-4D37-80B0-0CACD0744535}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List1!$A$1:$D$335</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1489,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD44B419-C6DF-4959-A7B6-BB782069E036}">
   <dimension ref="A1:D335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6196,6 +6199,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EE9A65F29DC32D48980633F5BC228988" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2ebc7d1dea9e8fbe2ea24e864b3f24ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="586ecad2-face-4d47-923a-6dc9bfbea6a8" xmlns:ns4="ad042804-66cc-4ef2-8f63-74f46e479421" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec8d9661665b72df15d0d0f44e6d68b2" ns3:_="" ns4:_="">
     <xsd:import namespace="586ecad2-face-4d47-923a-6dc9bfbea6a8"/>
@@ -6418,22 +6436,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B533DE8B-8BA3-4FB3-8ACA-4BEB26D069AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ad042804-66cc-4ef2-8f63-74f46e479421"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="586ecad2-face-4d47-923a-6dc9bfbea6a8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{308427CE-3662-470E-B476-478181BF7BDD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C6E587A-8440-4D33-B543-BBCF1B10D811}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6450,29 +6478,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{308427CE-3662-470E-B476-478181BF7BDD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B533DE8B-8BA3-4FB3-8ACA-4BEB26D069AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ad042804-66cc-4ef2-8f63-74f46e479421"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="586ecad2-face-4d47-923a-6dc9bfbea6a8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>